--- a/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862327E3-035A-C042-8369-BD7B8048A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF4F14B-B59C-D94A-9D1C-D692D0D1E6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="68">
   <si>
     <t>Database</t>
   </si>
@@ -116,48 +116,6 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>u4</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>u6</t>
-  </si>
-  <si>
-    <t>ub</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>simapro category</t>
-  </si>
-  <si>
-    <t>Material/Fuels/Synthetic/Transformation</t>
-  </si>
-  <si>
-    <t>Material/Fuels/Synthetic/Infrastructure</t>
   </si>
   <si>
     <t>market for sheet rolling, aluminium</t>
@@ -703,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="G75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,7 +675,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -791,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -805,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -890,42 +848,18 @@
       <c r="H11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -947,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -957,9 +891,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="T12" t="s">
-        <v>38</v>
-      </c>
+      <c r="T12"/>
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="str">
@@ -983,48 +915,15 @@
         <f>G29</f>
         <v>solar tower subsystem</v>
       </c>
-      <c r="I13" s="12">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13" si="0">LN(B13)</f>
-        <v>-17.175985950106508</v>
-      </c>
-      <c r="K13" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L13" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M13" s="20">
-        <v>1</v>
-      </c>
-      <c r="N13" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O13" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P13" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13" si="1">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K13),2)
-+POWER(LN(L13),2)
-+POWER(LN(M13),2)
-+POWER(LN(N13),2)
-+POWER(LN(O13),2)
-+POWER(LN(P13),2)
-+POWER(LN(Q13),2)
-)
-)))</f>
-        <v>0.5668526959223994</v>
-      </c>
+      <c r="J13"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="str">
@@ -1128,20 +1027,20 @@
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B17" s="13">
         <f>120/0.2</f>
         <v>600</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H17" s="11"/>
       <c r="J17"/>
@@ -1156,7 +1055,7 @@
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B18" s="13">
         <v>9</v>
@@ -1172,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H18" s="11"/>
       <c r="J18"/>
@@ -1205,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1233,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1247,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1286,7 +1185,7 @@
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B26" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -1344,42 +1243,18 @@
       <c r="H28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="str">
@@ -1409,9 +1284,6 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="T29" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
@@ -1433,52 +1305,19 @@
       <c r="G30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="12">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J36" si="2">LN(B30)</f>
-        <v>8.0518232743713778</v>
-      </c>
-      <c r="K30" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L30" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M30" s="20">
-        <v>1</v>
-      </c>
-      <c r="N30" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q30">
-        <v>1.05</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ref="R30:R36" si="3">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K30),2)
-+POWER(LN(L30),2)
-+POWER(LN(M30),2)
-+POWER(LN(N30),2)
-+POWER(LN(O30),2)
-+POWER(LN(P30),2)
-+POWER(LN(Q30),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J30"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30"/>
+      <c r="R30"/>
     </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B31" s="17">
         <f>B30</f>
@@ -1508,7 +1347,7 @@
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B32" s="17">
         <f>0.0000655*B26</f>
@@ -1524,44 +1363,21 @@
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="12">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>7.5425255347834401</v>
-      </c>
-      <c r="K32" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L32" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M32" s="20">
-        <v>1</v>
-      </c>
-      <c r="N32" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O32" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P32" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q32">
-        <v>1.05</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32"/>
+      <c r="R32"/>
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B33" s="17">
         <f>B32</f>
@@ -1577,44 +1393,21 @@
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="12">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>7.5425255347834401</v>
-      </c>
-      <c r="K33" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L33" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M33" s="20">
-        <v>1</v>
-      </c>
-      <c r="N33" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O33" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P33" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q33">
-        <v>1.05</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33"/>
+      <c r="R33"/>
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B34" s="17">
         <f>0.000964*B26</f>
@@ -1630,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J34"/>
       <c r="K34" s="20"/>
@@ -1644,7 +1437,7 @@
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B35" s="17">
         <f>B36</f>
@@ -1660,40 +1453,17 @@
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="12">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>15.166070471075281</v>
-      </c>
-      <c r="K35" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L35" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M35" s="20">
-        <v>1</v>
-      </c>
-      <c r="N35" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O35" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P35" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q35">
-        <v>1.05</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35"/>
+      <c r="R35"/>
     </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
@@ -1715,42 +1485,19 @@
       <c r="G36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="12">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>15.166070471075281</v>
-      </c>
-      <c r="K36" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L36" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M36" s="20">
-        <v>1</v>
-      </c>
-      <c r="N36" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O36" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P36" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q36">
-        <v>1.05</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J36"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36"/>
+      <c r="R36"/>
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B37" s="17">
         <f>0.0357*B26</f>
@@ -1766,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="20"/>
@@ -1780,7 +1527,7 @@
     </row>
     <row r="38" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B38" s="17">
         <f>0.0689*B26</f>
@@ -1796,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J38"/>
       <c r="K38" s="20"/>
@@ -1810,7 +1557,7 @@
     </row>
     <row r="39" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B39" s="17">
         <f>0.0457*B26</f>
@@ -1826,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J39"/>
       <c r="K39" s="20"/>
@@ -1869,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -1897,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -1911,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -1950,7 +1697,7 @@
     </row>
     <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B48" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -2008,42 +1755,18 @@
       <c r="H50" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S50" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="8"/>
     </row>
     <row r="51" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="str">
@@ -2073,9 +1796,6 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
-      <c r="T51" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
@@ -2097,52 +1817,19 @@
       <c r="G52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="12">
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" ref="J52" si="4">LN(B52)</f>
-        <v>9.3163127616070653</v>
-      </c>
-      <c r="K52" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L52" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M52" s="20">
-        <v>1</v>
-      </c>
-      <c r="N52" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O52" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P52" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q52">
-        <v>1.05</v>
-      </c>
-      <c r="R52">
-        <f t="shared" ref="R52" si="5">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K52),2)
-+POWER(LN(L52),2)
-+POWER(LN(M52),2)
-+POWER(LN(N52),2)
-+POWER(LN(O52),2)
-+POWER(LN(P52),2)
-+POWER(LN(Q52),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J52"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52"/>
+      <c r="R52"/>
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B53" s="17">
         <f>B52</f>
@@ -2172,7 +1859,7 @@
     </row>
     <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B54" s="17">
         <f>0.000394*B48</f>
@@ -2188,54 +1875,21 @@
         <v>12</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="12">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <f t="shared" ref="J54:J55" si="6">LN(B54)</f>
-        <v>9.3368263014401673</v>
-      </c>
-      <c r="K54" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L54" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M54" s="20">
-        <v>1</v>
-      </c>
-      <c r="N54" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q54">
-        <v>1.05</v>
-      </c>
-      <c r="R54">
-        <f t="shared" ref="R54:R55" si="7">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K54),2)
-+POWER(LN(L54),2)
-+POWER(LN(M54),2)
-+POWER(LN(N54),2)
-+POWER(LN(O54),2)
-+POWER(LN(P54),2)
-+POWER(LN(Q54),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54"/>
+      <c r="R54"/>
     </row>
     <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B55" s="17">
         <f>B54</f>
@@ -2251,44 +1905,21 @@
         <v>12</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="12">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="6"/>
-        <v>9.3368263014401673</v>
-      </c>
-      <c r="K55" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L55" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M55" s="20">
-        <v>1</v>
-      </c>
-      <c r="N55" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O55" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P55" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q55">
-        <v>1.05</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="7"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55"/>
+      <c r="R55"/>
     </row>
     <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B56" s="17">
         <f>0.000116*B48</f>
@@ -2304,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J56"/>
       <c r="K56" s="20"/>
@@ -2318,7 +1949,7 @@
     </row>
     <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B57" s="17">
         <f>B58</f>
@@ -2334,50 +1965,17 @@
         <v>12</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="12">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ref="J57:J58" si="8">LN(B57)</f>
-        <v>12.848447500716695</v>
-      </c>
-      <c r="K57" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L57" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M57" s="20">
-        <v>1</v>
-      </c>
-      <c r="N57" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O57" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P57" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q57">
-        <v>1.05</v>
-      </c>
-      <c r="R57">
-        <f t="shared" ref="R57:R58" si="9">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K57),2)
-+POWER(LN(L57),2)
-+POWER(LN(M57),2)
-+POWER(LN(N57),2)
-+POWER(LN(O57),2)
-+POWER(LN(P57),2)
-+POWER(LN(Q57),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57"/>
+      <c r="R57"/>
     </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
@@ -2399,38 +1997,15 @@
       <c r="G58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="12">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="8"/>
-        <v>12.848447500716695</v>
-      </c>
-      <c r="K58" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L58" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M58" s="20">
-        <v>1</v>
-      </c>
-      <c r="N58" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O58" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P58" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q58">
-        <v>1.05</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="9"/>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J58"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58"/>
+      <c r="R58"/>
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
@@ -2451,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -2479,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -2493,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -2532,7 +2107,7 @@
     </row>
     <row r="66" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B66" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -2590,42 +2165,18 @@
       <c r="H68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N68" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S68" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T68" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I68" s="18"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="8"/>
     </row>
     <row r="69" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="str">
@@ -2655,9 +2206,6 @@
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
-      <c r="T69" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="70" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
@@ -2679,52 +2227,19 @@
       <c r="G70" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="12">
-        <v>2</v>
-      </c>
-      <c r="J70">
-        <f t="shared" ref="J70" si="10">LN(B70)</f>
-        <v>7.1239983892519358</v>
-      </c>
-      <c r="K70" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L70" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M70" s="20">
-        <v>1</v>
-      </c>
-      <c r="N70" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O70" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P70" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q70">
-        <v>1.05</v>
-      </c>
-      <c r="R70">
-        <f t="shared" ref="R70" si="11">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K70),2)
-+POWER(LN(L70),2)
-+POWER(LN(M70),2)
-+POWER(LN(N70),2)
-+POWER(LN(O70),2)
-+POWER(LN(P70),2)
-+POWER(LN(Q70),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J70"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70"/>
+      <c r="R70"/>
     </row>
     <row r="71" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B71" s="17">
         <f>B70</f>
@@ -2754,7 +2269,7 @@
     </row>
     <row r="72" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B72" s="17">
         <f>0.000603*B66</f>
@@ -2770,54 +2285,21 @@
         <v>12</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="12">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <f t="shared" ref="J72:J73" si="12">LN(B72)</f>
-        <v>9.7623925888694192</v>
-      </c>
-      <c r="K72" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L72" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M72" s="20">
-        <v>1</v>
-      </c>
-      <c r="N72" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O72" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P72" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q72">
-        <v>1.05</v>
-      </c>
-      <c r="R72">
-        <f t="shared" ref="R72:R73" si="13">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K72),2)
-+POWER(LN(L72),2)
-+POWER(LN(M72),2)
-+POWER(LN(N72),2)
-+POWER(LN(O72),2)
-+POWER(LN(P72),2)
-+POWER(LN(Q72),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72"/>
+      <c r="R72"/>
     </row>
     <row r="73" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B73" s="17">
         <f>B72</f>
@@ -2833,44 +2315,21 @@
         <v>12</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="12">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="12"/>
-        <v>9.7623925888694192</v>
-      </c>
-      <c r="K73" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L73" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M73" s="20">
-        <v>1</v>
-      </c>
-      <c r="N73" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O73" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P73" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q73">
-        <v>1.05</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="13"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73"/>
+      <c r="R73"/>
     </row>
     <row r="74" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B74" s="17">
         <f>0.000334*B66</f>
@@ -2886,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J74"/>
       <c r="K74" s="20"/>
@@ -2900,7 +2359,7 @@
     </row>
     <row r="75" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B75" s="17">
         <f>B76</f>
@@ -2916,50 +2375,17 @@
         <v>12</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I75" s="12">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75:J76" si="14">LN(B75)</f>
-        <v>10.961377851684317</v>
-      </c>
-      <c r="K75" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L75" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M75" s="20">
-        <v>1</v>
-      </c>
-      <c r="N75" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O75" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P75" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q75">
-        <v>1.05</v>
-      </c>
-      <c r="R75">
-        <f t="shared" ref="R75:R76" si="15">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K75),2)
-+POWER(LN(L75),2)
-+POWER(LN(M75),2)
-+POWER(LN(N75),2)
-+POWER(LN(O75),2)
-+POWER(LN(P75),2)
-+POWER(LN(Q75),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75"/>
+      <c r="R75"/>
     </row>
     <row r="76" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
@@ -2981,45 +2407,22 @@
       <c r="G76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I76" s="12">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="14"/>
-        <v>10.961377851684317</v>
-      </c>
-      <c r="K76" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L76" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M76" s="20">
-        <v>1</v>
-      </c>
-      <c r="N76" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O76" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P76" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q76">
-        <v>1.05</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="15"/>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J76"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76"/>
+      <c r="R76"/>
     </row>
     <row r="78" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -3047,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -3061,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -3100,7 +2503,7 @@
     </row>
     <row r="84" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B84" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -3158,42 +2561,18 @@
       <c r="H86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L86" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M86" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N86" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O86" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P86" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q86" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R86" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S86" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T86" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="8"/>
     </row>
     <row r="87" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="str">
@@ -3223,9 +2602,6 @@
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
-      <c r="T87" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="88" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
@@ -3247,52 +2623,19 @@
       <c r="G88" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="12">
-        <v>2</v>
-      </c>
-      <c r="J88">
-        <f t="shared" ref="J88" si="16">LN(B88)</f>
-        <v>9.2325931816176503</v>
-      </c>
-      <c r="K88" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L88" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M88" s="20">
-        <v>1</v>
-      </c>
-      <c r="N88" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O88" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P88" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q88">
-        <v>1.05</v>
-      </c>
-      <c r="R88">
-        <f t="shared" ref="R88" si="17">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K88),2)
-+POWER(LN(L88),2)
-+POWER(LN(M88),2)
-+POWER(LN(N88),2)
-+POWER(LN(O88),2)
-+POWER(LN(P88),2)
-+POWER(LN(Q88),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J88"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88"/>
+      <c r="R88"/>
     </row>
     <row r="89" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B89" s="17">
         <f>B88</f>
@@ -3322,7 +2665,7 @@
     </row>
     <row r="90" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B90" s="17">
         <f>0.00171*B84</f>
@@ -3338,54 +2681,21 @@
         <v>12</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I90" s="12">
-        <v>2</v>
-      </c>
-      <c r="J90">
-        <f t="shared" ref="J90:J91" si="18">LN(B90)</f>
-        <v>10.80472404163894</v>
-      </c>
-      <c r="K90" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L90" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M90" s="20">
-        <v>1</v>
-      </c>
-      <c r="N90" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O90" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P90" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q90">
-        <v>1.05</v>
-      </c>
-      <c r="R90">
-        <f t="shared" ref="R90:R91" si="19">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K90),2)
-+POWER(LN(L90),2)
-+POWER(LN(M90),2)
-+POWER(LN(N90),2)
-+POWER(LN(O90),2)
-+POWER(LN(P90),2)
-+POWER(LN(Q90),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90"/>
+      <c r="R90"/>
     </row>
     <row r="91" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B91" s="17">
         <f>B90</f>
@@ -3401,44 +2711,21 @@
         <v>12</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I91" s="12">
-        <v>2</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="18"/>
-        <v>10.80472404163894</v>
-      </c>
-      <c r="K91" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L91" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M91" s="20">
-        <v>1</v>
-      </c>
-      <c r="N91" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O91" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P91" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q91">
-        <v>1.05</v>
-      </c>
-      <c r="R91">
-        <f t="shared" si="19"/>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91"/>
+      <c r="R91"/>
     </row>
     <row r="92" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B92" s="17">
         <f>0.000512*B84</f>
@@ -3454,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="20"/>
@@ -3468,7 +2755,7 @@
     </row>
     <row r="93" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B93" s="17">
         <f>B94</f>
@@ -3484,50 +2771,17 @@
         <v>12</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I93" s="12">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <f t="shared" ref="J93:J94" si="20">LN(B93)</f>
-        <v>12.801927485081803</v>
-      </c>
-      <c r="K93" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L93" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M93" s="20">
-        <v>1</v>
-      </c>
-      <c r="N93" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O93" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P93" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q93">
-        <v>1.05</v>
-      </c>
-      <c r="R93">
-        <f t="shared" ref="R93:R94" si="21">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K93),2)
-+POWER(LN(L93),2)
-+POWER(LN(M93),2)
-+POWER(LN(N93),2)
-+POWER(LN(O93),2)
-+POWER(LN(P93),2)
-+POWER(LN(Q93),2)
-)
-)))</f>
-        <v>0.14205582952229279</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93"/>
+      <c r="R93"/>
     </row>
     <row r="94" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -3549,58 +2803,35 @@
       <c r="G94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I94" s="12">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="20"/>
-        <v>12.801927485081803</v>
-      </c>
-      <c r="K94" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L94" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M94" s="20">
-        <v>1</v>
-      </c>
-      <c r="N94" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O94" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P94" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q94">
-        <v>1.05</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="21"/>
-        <v>0.14205582952229279</v>
-      </c>
+      <c r="J94"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94"/>
+      <c r="R94"/>
     </row>
     <row r="95" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B95" s="17">
         <f>0.6/2300*B84</f>
         <v>7513.7948577466432</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J95"/>
       <c r="K95" s="20"/>
@@ -3614,7 +2845,7 @@
     </row>
     <row r="96" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B96" s="17">
         <f>0.000268*B84</f>
@@ -3630,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="20"/>
@@ -3644,7 +2875,7 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B97" s="4">
         <f>0.00484*B84</f>
@@ -3660,12 +2891,12 @@
         <v>12</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B98" s="4">
         <f>0.015*B84</f>
@@ -3675,18 +2906,18 @@
         <v>22</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B99" s="4">
         <f>0.738*B84</f>
@@ -3696,13 +2927,13 @@
         <v>17</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
